--- a/ALRParameters.xlsx
+++ b/ALRParameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\michael.oconnor\Downloads\pythonWrk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rtpnhip01\ssessasdata\0215469_ACO-HIPAA_WTH\finance\report validation\quarterly\2022 Q1\ALR DD_parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28368B1F-8F1B-485A-AA0A-9EED8865A720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALR Parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Parameters</t>
   </si>
@@ -104,22 +105,25 @@
     <t>ALR Table 1-2, 1-3, 1-4: Claims Processed as of</t>
   </si>
   <si>
-    <t>10/01/2019 - 09/30/2020</t>
-  </si>
-  <si>
     <t>V24</t>
   </si>
   <si>
     <t>01/01/2020 - 12/31/2020</t>
   </si>
   <si>
-    <t>01/01/2021 - 12/31/2021</t>
+    <t>04/01/2021 - 3/31/2022</t>
+  </si>
+  <si>
+    <t>10/01/2020 - 09/30/2021</t>
+  </si>
+  <si>
+    <t>01/01/2022 - 3/31/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -785,36 +789,36 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -856,7 +860,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="42"/>
+    <cellStyle name="Normal 3" xfId="42" xr:uid="{08DA1FF4-DDAB-4F30-874F-E15A820F1413}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -878,6 +882,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -915,6 +920,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -949,6 +955,7 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -997,6 +1004,7 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1016,6 +1024,7 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1040,6 +1049,7 @@
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -1077,6 +1087,7 @@
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -1116,6 +1127,7 @@
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1171,6 +1183,7 @@
         <sz val="12"/>
         <color auto="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1201,6 +1214,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1235,32 +1249,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:C12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59E2DAD9-5438-469C-AA57-BA1A09BED81C}" name="Table1" displayName="Table1" ref="A1:C12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:C12" xr:uid="{1E5DD98C-1F0A-4257-9086-80AEDCAC1BE3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Parameters" dataDxfId="10"/>
-    <tableColumn id="2" name="For ACOs Under Preliminary Prospective Assignment" dataDxfId="9"/>
-    <tableColumn id="3" name="For ACOs Under Prospective Assignment" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{31E048AA-A94B-4ABF-A9DA-3E2268C316DD}" name="Parameters" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7AAB7B0B-3010-45CF-B513-2C2A58351FBC}" name="For ACOs Under Preliminary Prospective Assignment" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{EA6062B4-34A8-483E-B1D5-EDC9CCDAA78C}" name="For ACOs Under Prospective Assignment" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9631FA2-F125-4723-9137-C8E85126B240}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{B0C8972E-C28B-45FD-ADD2-6967A6A315A3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Mean National Assignable Risk Scores Used to Renormalize Beneficiary Risk Scores" dataDxfId="2"/>
-    <tableColumn id="2" name="CMS-HCC" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="Demographic" dataDxfId="0" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" xr3:uid="{11C44796-4FC0-4CE5-A3F8-F4E273EE295E}" name="Mean National Assignable Risk Scores Used to Renormalize Beneficiary Risk Scores" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{65B46EA9-8456-455C-B1C1-E36931728003}" name="CMS-HCC" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{06EB58DD-4C3E-4D13-AA32-86F3C2D76111}" name="Demographic" dataDxfId="0" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1562,18 +1576,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="3" width="30.85546875" customWidth="1"/>
+    <col min="2" max="3" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,125 +1598,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
-        <v>44104</v>
-      </c>
-      <c r="C4" s="12">
-        <v>44104</v>
+      <c r="B4" s="16">
+        <v>44469</v>
+      </c>
+      <c r="C4" s="16">
+        <v>44469</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12">
-        <v>44568</v>
-      </c>
-      <c r="C5" s="12">
-        <v>44127</v>
+      <c r="B5" s="16">
+        <v>44652</v>
+      </c>
+      <c r="C5" s="16">
+        <v>44498</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12">
-        <v>44568</v>
-      </c>
-      <c r="C6" s="12">
-        <v>44568</v>
+      <c r="B6" s="16">
+        <v>44652</v>
+      </c>
+      <c r="C6" s="16">
+        <v>44652</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>24</v>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>24</v>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2021</v>
+      <c r="B11" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="20">
-        <v>44573</v>
-      </c>
-      <c r="C12" s="20">
-        <v>44573</v>
+      <c r="B12" s="15">
+        <v>44673</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44659</v>
       </c>
     </row>
   </sheetData>
@@ -1719,18 +1733,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="3" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.21875" customWidth="1"/>
+    <col min="2" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1741,47 +1755,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="17">
         <v>1.0480297999999999</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>1.0048897567727899</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="17">
         <v>1.2748782000000001</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>1.0484310895783899</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>1.8188346</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>1.5775909700030899</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="19">
         <v>1.0639152999999999</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <v>0.91530048448613499</v>
       </c>
     </row>
